--- a/tests/test_excelparameterloader.xlsx
+++ b/tests/test_excelparameterloader.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="with_start_date" sheetId="2" r:id="rId2"/>
+    <sheet name="shuffle_col_order" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
   <si>
     <t>variable</t>
   </si>
@@ -54,12 +54,6 @@
     <t>unit</t>
   </si>
   <si>
-    <t>start date</t>
-  </si>
-  <si>
-    <t>end date</t>
-  </si>
-  <si>
     <t>CAGR</t>
   </si>
   <si>
@@ -169,6 +163,9 @@
   </si>
   <si>
     <t>net, provider</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -595,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -631,33 +628,33 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -666,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4">
         <v>0.1</v>
@@ -675,21 +672,21 @@
         <v>39814</v>
       </c>
       <c r="K2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
@@ -699,24 +696,24 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
@@ -728,47 +725,47 @@
         <v>10</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -780,56 +777,56 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
         <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
       </c>
       <c r="E7">
         <v>2</v>
       </c>
       <c r="H7" s="1"/>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -840,20 +837,20 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E10" s="5">
         <v>123</v>
       </c>
       <c r="F10" s="5"/>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10">
         <v>0.5</v>
@@ -864,13 +861,13 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -879,7 +876,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I11" s="4">
         <v>0.1</v>
@@ -888,18 +885,18 @@
         <v>39448</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -908,7 +905,7 @@
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="4">
         <v>0.1</v>
@@ -917,18 +914,18 @@
         <v>39448</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" s="1">
         <v>2</v>
@@ -938,32 +935,32 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s">
-        <v>17</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="H14" s="1"/>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -974,15 +971,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1013,52 +1010,46 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3">
+        <v>16</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="J2" s="3">
         <v>39814</v>
       </c>
-      <c r="J2" s="3">
-        <v>39904</v>
-      </c>
-      <c r="K2" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="L2" s="3">
-        <v>39814</v>
-      </c>
-      <c r="M2" t="s">
-        <v>19</v>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_excelparameterloader.xlsx
+++ b/tests/test_excelparameterloader.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
   <si>
     <t>variable</t>
   </si>
@@ -123,9 +123,6 @@
     <t>s1</t>
   </si>
   <si>
-    <t>multiple choice</t>
-  </si>
-  <si>
     <t>1,2,3</t>
   </si>
   <si>
@@ -166,6 +163,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>choice_var</t>
+  </si>
+  <si>
+    <t>large_val</t>
+  </si>
+  <si>
+    <t>multiple_choice</t>
   </si>
 </sst>
 </file>
@@ -235,14 +241,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,12 +262,23 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -590,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -637,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>11</v>
@@ -675,7 +698,7 @@
         <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -698,11 +721,14 @@
       <c r="H3" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -727,11 +753,14 @@
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -752,6 +781,9 @@
       <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>10</v>
       </c>
@@ -774,6 +806,9 @@
         <f>E6/10</f>
         <v>0.1</v>
       </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -792,13 +827,16 @@
         <v>2</v>
       </c>
       <c r="H7" s="1"/>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
       <c r="K7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -807,12 +845,14 @@
         <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="3"/>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
       <c r="J8" s="3"/>
       <c r="K8" t="s">
         <v>17</v>
@@ -820,7 +860,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
@@ -834,10 +874,13 @@
       <c r="F9">
         <v>1</v>
       </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
@@ -850,7 +893,7 @@
       </c>
       <c r="F10" s="5"/>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>0.5</v>
@@ -861,7 +904,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
@@ -890,7 +933,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -908,7 +951,7 @@
         <v>16</v>
       </c>
       <c r="I12" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>39448</v>
@@ -919,7 +962,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
@@ -937,6 +980,9 @@
       <c r="H13" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>10</v>
       </c>
@@ -947,7 +993,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -959,8 +1005,65 @@
         <v>2</v>
       </c>
       <c r="H14" s="1"/>
+      <c r="I14" s="11">
+        <v>0</v>
+      </c>
       <c r="K14" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="I16" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" s="8">
+        <v>12375193</v>
+      </c>
+      <c r="F18" s="8">
+        <v>12452972</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="10">
+        <v>-0.01</v>
+      </c>
+      <c r="J18" s="9">
+        <v>42005</v>
       </c>
     </row>
   </sheetData>
@@ -973,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1020,12 +1123,12 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -1049,7 +1152,7 @@
         <v>17</v>
       </c>
       <c r="N2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/tests/test_excelparameterloader.xlsx
+++ b/tests/test_excelparameterloader.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28315"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="shuffle_col_order" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -616,7 +616,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/tests/test_excelparameterloader.xlsx
+++ b/tests/test_excelparameterloader.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csxds/workspaces/python/excel-modeling-tools/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE8BB9A-220D-C34E-A374-E3DCBCEFD9AF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="28560" windowHeight="17380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="shuffle_col_order" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" iterate="1" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="51">
   <si>
     <t>variable</t>
   </si>
@@ -172,12 +173,21 @@
   </si>
   <si>
     <t>multiple_choice</t>
+  </si>
+  <si>
+    <t>static_one</t>
+  </si>
+  <si>
+    <t>litres</t>
+  </si>
+  <si>
+    <t>uniform_dist_growth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -254,7 +264,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -267,6 +277,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -286,6 +297,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -612,11 +626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1035,12 +1049,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I17" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>46</v>
       </c>
@@ -1064,6 +1078,64 @@
       </c>
       <c r="J18" s="9">
         <v>42005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>4</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="11">
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1073,7 +1145,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
